--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/artfynd/A 59332-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/artfynd/A 59332-2022.xlsx", "A 59332-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/kartor/A 59332-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/kartor/A 59332-2022.png", "A 59332-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomål/A 59332-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomål/A 59332-2022.docx", "A 59332-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomålsmail/A 59332-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomålsmail/A 59332-2022.docx", "A 59332-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsyn/A 59332-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsyn/A 59332-2022.docx", "A 59332-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsynsmail/A 59332-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsynsmail/A 59332-2022.docx", "A 59332-2022")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/artfynd/A 33496-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/artfynd/A 33496-2020.xlsx", "A 33496-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/kartor/A 33496-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/kartor/A 33496-2020.png", "A 33496-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomål/A 33496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomål/A 33496-2020.docx", "A 33496-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomålsmail/A 33496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomålsmail/A 33496-2020.docx", "A 33496-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsyn/A 33496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsyn/A 33496-2020.docx", "A 33496-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsynsmail/A 33496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsynsmail/A 33496-2020.docx", "A 33496-2020")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/artfynd/A 53870-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/artfynd/A 53870-2022.xlsx", "A 53870-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/kartor/A 53870-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/kartor/A 53870-2022.png", "A 53870-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomål/A 53870-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomål/A 53870-2022.docx", "A 53870-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomålsmail/A 53870-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/klagomålsmail/A 53870-2022.docx", "A 53870-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsyn/A 53870-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsyn/A 53870-2022.docx", "A 53870-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsynsmail/A 53870-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSOR/tillsynsmail/A 53870-2022.docx", "A 53870-2022")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt KUNGSÖR.xlsx
+++ b/Översikt KUNGSÖR.xlsx
@@ -572,7 +572,7 @@
         <v>44904</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44880</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>43434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>43436</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43461</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43493</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43494</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43496</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>43497</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43528</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43542</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43569</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43581</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43598</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43707</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43712</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43732</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>43755</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>43777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43805</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43809</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>43822</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43871</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43871</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43885</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43902</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43902</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44000</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44048</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44084</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44091</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44144</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44168</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44217</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44286</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>44391</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44392</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44392</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44438</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>44470</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44491</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44491</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44600</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44603</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44620</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44623</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44677</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44725</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44750</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44750</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44824</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44866</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44908</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44908</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44950</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44974</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45055</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45114</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
